--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm2-Ramp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adm2-Ramp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,19 +528,19 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H2">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.9478013333333334</v>
+        <v>0.6153926666666667</v>
       </c>
       <c r="N2">
-        <v>2.843404</v>
+        <v>1.846178</v>
       </c>
       <c r="O2">
-        <v>0.2166419058487518</v>
+        <v>0.172697186719763</v>
       </c>
       <c r="P2">
-        <v>0.2166419058487518</v>
+        <v>0.172697186719763</v>
       </c>
       <c r="Q2">
-        <v>0.1562630580253333</v>
+        <v>0.17330072886</v>
       </c>
       <c r="R2">
-        <v>1.406367522228</v>
+        <v>1.55970655974</v>
       </c>
       <c r="S2">
-        <v>0.2166419058487518</v>
+        <v>0.172697186719763</v>
       </c>
       <c r="T2">
-        <v>0.2166419058487518</v>
+        <v>0.172697186719763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,19 +590,19 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H3">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -611,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6153926666666667</v>
+        <v>0.433374</v>
       </c>
       <c r="N3">
-        <v>1.846178</v>
+        <v>1.300122</v>
       </c>
       <c r="O3">
-        <v>0.1406622205131726</v>
+        <v>0.1216174235596306</v>
       </c>
       <c r="P3">
-        <v>0.1406622205131726</v>
+        <v>0.1216174235596306</v>
       </c>
       <c r="Q3">
-        <v>0.1014591735606667</v>
+        <v>0.12204245214</v>
       </c>
       <c r="R3">
-        <v>0.913132562046</v>
+        <v>1.09838206926</v>
       </c>
       <c r="S3">
-        <v>0.1406622205131726</v>
+        <v>0.1216174235596306</v>
       </c>
       <c r="T3">
-        <v>0.1406622205131726</v>
+        <v>0.1216174235596306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,19 +652,19 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.164869</v>
+        <v>0.28161</v>
       </c>
       <c r="H4">
-        <v>0.494607</v>
+        <v>0.84483</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -673,96 +673,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1892046666666667</v>
+        <v>2.514653666666667</v>
       </c>
       <c r="N4">
-        <v>0.5676140000000001</v>
+        <v>7.543961</v>
       </c>
       <c r="O4">
-        <v>0.04324710056904802</v>
+        <v>0.7056853897206065</v>
       </c>
       <c r="P4">
-        <v>0.04324710056904802</v>
+        <v>0.7056853897206065</v>
       </c>
       <c r="Q4">
-        <v>0.03119398418866667</v>
+        <v>0.70815161907</v>
       </c>
       <c r="R4">
-        <v>0.280745857698</v>
+        <v>6.37336457163</v>
       </c>
       <c r="S4">
-        <v>0.04324710056904802</v>
+        <v>0.7056853897206065</v>
       </c>
       <c r="T4">
-        <v>0.04324710056904802</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.164869</v>
-      </c>
-      <c r="H5">
-        <v>0.494607</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>2.622569</v>
-      </c>
-      <c r="N5">
-        <v>7.867707</v>
-      </c>
-      <c r="O5">
-        <v>0.5994487730690277</v>
-      </c>
-      <c r="P5">
-        <v>0.5994487730690277</v>
-      </c>
-      <c r="Q5">
-        <v>0.4323803284609999</v>
-      </c>
-      <c r="R5">
-        <v>3.891422956149</v>
-      </c>
-      <c r="S5">
-        <v>0.5994487730690277</v>
-      </c>
-      <c r="T5">
-        <v>0.5994487730690277</v>
+        <v>0.7056853897206065</v>
       </c>
     </row>
   </sheetData>
